--- a/Aspe_Moreno_1.xlsx
+++ b/Aspe_Moreno_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\UNI\QUINTO\Teoría de la Decisión\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B32AE294-65AD-4444-8F64-1D93D2654FCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70542D44-2B00-4C97-9032-2313947FE321}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{60BB437E-C5F1-42C9-A561-4D3DD5F5C563}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{60BB437E-C5F1-42C9-A561-4D3DD5F5C563}"/>
   </bookViews>
   <sheets>
     <sheet name="Beneficios" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,36 @@
   </sheets>
   <definedNames>
     <definedName name="alfa">Beneficios!$J$2</definedName>
+    <definedName name="solver_adj" localSheetId="0" hidden="1">Beneficios!$J$2</definedName>
+    <definedName name="solver_cvg" localSheetId="0" hidden="1">0.0001</definedName>
+    <definedName name="solver_drv" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_eng" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_est" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_itr" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_lhs1" localSheetId="0" hidden="1">Beneficios!$J$8</definedName>
+    <definedName name="solver_mip" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_mni" localSheetId="0" hidden="1">30</definedName>
+    <definedName name="solver_mrt" localSheetId="0" hidden="1">0.075</definedName>
+    <definedName name="solver_msl" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_neg" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_nod" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_num" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_nwt" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_opt" localSheetId="0" hidden="1">Beneficios!$J$8</definedName>
+    <definedName name="solver_pre" localSheetId="0" hidden="1">0.000000000000000001</definedName>
+    <definedName name="solver_rbv" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rel1" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rhs1" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rlx" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_rsd" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_scl" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_sho" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_ssz" localSheetId="0" hidden="1">100</definedName>
+    <definedName name="solver_tim" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_tol" localSheetId="0" hidden="1">0.01</definedName>
+    <definedName name="solver_typ" localSheetId="0" hidden="1">3</definedName>
+    <definedName name="solver_val" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_ver" localSheetId="0" hidden="1">3</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="20">
   <si>
     <t>w1</t>
   </si>
@@ -98,12 +128,15 @@
   <si>
     <t>mínimo por filas</t>
   </si>
+  <si>
+    <t>Diferencia</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -112,7 +145,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -146,6 +179,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -190,7 +229,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -198,6 +237,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -213,6 +253,965 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="2"/>
+              <c:pt idx="0">
+                <c:v>0</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>1</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Beneficios!$H$3:$I$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-BA8A-486F-9497-EB81CA220AD8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="2"/>
+              <c:pt idx="0">
+                <c:v>0</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>1</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Beneficios!$H$4:$I$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-BA8A-486F-9497-EB81CA220AD8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="2"/>
+              <c:pt idx="0">
+                <c:v>0</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>1</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Beneficios!$H$5:$I$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-BA8A-486F-9497-EB81CA220AD8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="577790799"/>
+        <c:axId val="577791279"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="577790799"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="577791279"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="577791279"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="577790799"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>156210</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>560070</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C86B8F8-C15D-1692-84DB-4AD289872BDB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -532,22 +1531,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{192166CB-3C9D-450B-83B3-B51C47FF0567}">
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:K6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="22.21875" customWidth="1"/>
-    <col min="9" max="9" width="14.21875" customWidth="1"/>
-    <col min="10" max="10" width="19.21875" customWidth="1"/>
-    <col min="11" max="11" width="18.109375" customWidth="1"/>
+    <col min="1" max="1" width="22.19921875" customWidth="1"/>
+    <col min="9" max="9" width="14.19921875" customWidth="1"/>
+    <col min="10" max="10" width="19.19921875" customWidth="1"/>
+    <col min="11" max="11" width="18.09765625" customWidth="1"/>
     <col min="12" max="12" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -564,7 +1563,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11">
       <c r="B2" s="1"/>
       <c r="C2" s="1" t="s">
         <v>0</v>
@@ -584,13 +1583,13 @@
       <c r="H2" s="2"/>
       <c r="I2" s="3"/>
       <c r="J2" s="5">
-        <v>0.5</v>
+        <v>0.66666666666666674</v>
       </c>
       <c r="K2" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11">
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
@@ -619,14 +1618,14 @@
       </c>
       <c r="J3" s="5">
         <f>+alfa*I3+(1-alfa)*H3</f>
-        <v>9.5</v>
+        <v>10.333333333333332</v>
       </c>
       <c r="K3" s="5" t="str">
         <f>IF(J3=MAX($J$3:$J$5),"a1","")</f>
         <v>a1</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11">
       <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
@@ -655,14 +1654,14 @@
       </c>
       <c r="J4" s="5">
         <f>+alfa*I4+(1-alfa)*H4</f>
-        <v>7</v>
+        <v>8.3333333333333339</v>
       </c>
       <c r="K4" s="5" t="str">
         <f>IF(J4=MAX($J$3:$J$5),"a2","")</f>
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11">
       <c r="B5" s="1" t="s">
         <v>7</v>
       </c>
@@ -691,14 +1690,14 @@
       </c>
       <c r="J5" s="5">
         <f>+alfa*I5+(1-alfa)*H5</f>
-        <v>8</v>
+        <v>10.333333333333336</v>
       </c>
       <c r="K5" s="5" t="str">
         <f>IF(J5=MAX($J$3:$J$5),"a3","")</f>
-        <v/>
+        <v>a3</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11">
       <c r="H6" s="2">
         <f>MAX(H3:H5)</f>
         <v>7</v>
@@ -709,12 +1708,22 @@
       </c>
       <c r="J6" s="5">
         <f>MAX(J3:J5)</f>
-        <v>9.5</v>
+        <v>10.333333333333336</v>
       </c>
       <c r="K6" s="5"/>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="I8" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="J8" s="7">
+        <f>J3-J5</f>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -722,23 +1731,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50050C44-8591-4A6D-847F-4DD2EE0941BC}">
   <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:J6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="17.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.109375" customWidth="1"/>
-    <col min="7" max="7" width="15.5546875" customWidth="1"/>
-    <col min="8" max="8" width="19.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.44140625" customWidth="1"/>
-    <col min="12" max="12" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.3984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.09765625" customWidth="1"/>
+    <col min="7" max="7" width="15.59765625" customWidth="1"/>
+    <col min="8" max="8" width="19.09765625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.796875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.09765625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.3984375" customWidth="1"/>
+    <col min="12" max="12" width="11.09765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12">
       <c r="G1" s="2"/>
       <c r="H1" s="2" t="s">
         <v>8</v>
@@ -754,7 +1763,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12">
       <c r="A2" s="4"/>
       <c r="B2" s="4" t="s">
         <v>0</v>
@@ -790,7 +1799,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12">
       <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
@@ -827,14 +1836,14 @@
       </c>
       <c r="K3" s="5">
         <f>alfa*G3+(1-alfa)*I3</f>
-        <v>9.5</v>
+        <v>10.333333333333332</v>
       </c>
       <c r="L3" s="5" t="str">
         <f>IF(K3=MAX($K$3:$K$5),"a2","")</f>
         <v>a2</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12">
       <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
@@ -871,14 +1880,14 @@
       </c>
       <c r="K4" s="5">
         <f>alfa*G4+(1-alfa)*I4</f>
-        <v>7</v>
+        <v>8.3333333333333339</v>
       </c>
       <c r="L4" s="5" t="str">
         <f t="shared" ref="L4" si="4">IF(K4=MAX($K$3:$K$5),"a1","")</f>
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12">
       <c r="A5" s="4" t="s">
         <v>7</v>
       </c>
@@ -915,14 +1924,14 @@
       </c>
       <c r="K5" s="5">
         <f>alfa*G5+(1-alfa)*I5</f>
-        <v>8</v>
+        <v>10.333333333333336</v>
       </c>
       <c r="L5" s="5" t="str">
         <f>IF(K5=MAX($K$3:$K$5),"a3","")</f>
-        <v/>
+        <v>a3</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12">
       <c r="G6" s="2">
         <f>MIN(G3:G5)</f>
         <v>11</v>
@@ -935,7 +1944,7 @@
       <c r="J6" s="3"/>
       <c r="K6" s="5">
         <f>MIN(K3:K5)</f>
-        <v>7</v>
+        <v>8.3333333333333339</v>
       </c>
       <c r="L6" s="5"/>
     </row>
